--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="282">
   <si>
     <t>403</t>
   </si>
@@ -22,18 +22,51 @@
     <t>700</t>
   </si>
   <si>
-    <t>-∞</t>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>-0.5469567</t>
+  </si>
+  <si>
+    <t>0.2138575</t>
+  </si>
+  <si>
+    <t>1.934</t>
   </si>
   <si>
     <t>754</t>
   </si>
   <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>-0.4475505</t>
+  </si>
+  <si>
+    <t>0.2141147</t>
+  </si>
+  <si>
     <t>404</t>
   </si>
   <si>
     <t>809</t>
   </si>
   <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>-0.337927</t>
+  </si>
+  <si>
+    <t>0.2147333</t>
+  </si>
+  <si>
+    <t>1.937</t>
+  </si>
+  <si>
     <t>864</t>
   </si>
   <si>
@@ -79,9 +112,6 @@
     <t>0.2151881</t>
   </si>
   <si>
-    <t>1.937</t>
-  </si>
-  <si>
     <t>405</t>
   </si>
   <si>
@@ -100,6 +130,18 @@
     <t>1136</t>
   </si>
   <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>0.2547594</t>
+  </si>
+  <si>
+    <t>0.2209969</t>
+  </si>
+  <si>
+    <t>1.944</t>
+  </si>
+  <si>
     <t>1190</t>
   </si>
   <si>
@@ -110,6 +152,714 @@
   </si>
   <si>
     <t>1.943</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>-0.5523785</t>
+  </si>
+  <si>
+    <t>0.1139471</t>
+  </si>
+  <si>
+    <t>-0.4479938</t>
+  </si>
+  <si>
+    <t>0.1141637</t>
+  </si>
+  <si>
+    <t>-0.3384715</t>
+  </si>
+  <si>
+    <t>0.1145646</t>
+  </si>
+  <si>
+    <t>-0.2482743</t>
+  </si>
+  <si>
+    <t>0.1144434</t>
+  </si>
+  <si>
+    <t>-0.1482185</t>
+  </si>
+  <si>
+    <t>0.1147162</t>
+  </si>
+  <si>
+    <t>1.938</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>-0.04764052</t>
+  </si>
+  <si>
+    <t>0.1148843</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>0.04802233</t>
+  </si>
+  <si>
+    <t>0.1152988</t>
+  </si>
+  <si>
+    <t>1.947</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>0.1488101</t>
+  </si>
+  <si>
+    <t>0.115012</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>0.2550584</t>
+  </si>
+  <si>
+    <t>0.1203371</t>
+  </si>
+  <si>
+    <t>1.945</t>
+  </si>
+  <si>
+    <t>0.3502947</t>
+  </si>
+  <si>
+    <t>0.1149038</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>-0.5507458</t>
+  </si>
+  <si>
+    <t>0.01393285</t>
+  </si>
+  <si>
+    <t>1.928</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>-0.4478496</t>
+  </si>
+  <si>
+    <t>0.01399621</t>
+  </si>
+  <si>
+    <t>-0.3439964</t>
+  </si>
+  <si>
+    <t>0.01935332</t>
+  </si>
+  <si>
+    <t>-0.2438194</t>
+  </si>
+  <si>
+    <t>0.01938563</t>
+  </si>
+  <si>
+    <t>1.941</t>
+  </si>
+  <si>
+    <t>-0.1483364</t>
+  </si>
+  <si>
+    <t>0.01938112</t>
+  </si>
+  <si>
+    <t>-0.04241372</t>
+  </si>
+  <si>
+    <t>0.01942993</t>
+  </si>
+  <si>
+    <t>0.05325164</t>
+  </si>
+  <si>
+    <t>0.01942947</t>
+  </si>
+  <si>
+    <t>0.1543173</t>
+  </si>
+  <si>
+    <t>0.01944038</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>0.2494467</t>
+  </si>
+  <si>
+    <t>0.01408946</t>
+  </si>
+  <si>
+    <t>0.3501962</t>
+  </si>
+  <si>
+    <t>0.01408752</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>-0.5494573</t>
+  </si>
+  <si>
+    <t>-0.08108248</t>
+  </si>
+  <si>
+    <t>-0.4439413</t>
+  </si>
+  <si>
+    <t>-0.08111333</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>-0.3434254</t>
+  </si>
+  <si>
+    <t>-0.08109513</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>-0.2436627</t>
+  </si>
+  <si>
+    <t>-0.08131327</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>-0.15345</t>
+  </si>
+  <si>
+    <t>-0.08654218</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>-0.05289706</t>
+  </si>
+  <si>
+    <t>-0.08662675</t>
+  </si>
+  <si>
+    <t>0.04788044</t>
+  </si>
+  <si>
+    <t>-0.08676185</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>0.1435955</t>
+  </si>
+  <si>
+    <t>-0.08686076</t>
+  </si>
+  <si>
+    <t>0.249538</t>
+  </si>
+  <si>
+    <t>-0.08674015</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>0.3450465</t>
+  </si>
+  <si>
+    <t>-0.08673534</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>-0.5513914</t>
+  </si>
+  <si>
+    <t>-0.1856395</t>
+  </si>
+  <si>
+    <t>1.931</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>-0.4530919</t>
+  </si>
+  <si>
+    <t>-0.1862539</t>
+  </si>
+  <si>
+    <t>-0.3383411</t>
+  </si>
+  <si>
+    <t>-0.1869074</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>-0.2538302</t>
+  </si>
+  <si>
+    <t>-0.1869815</t>
+  </si>
+  <si>
+    <t>-0.05294677</t>
+  </si>
+  <si>
+    <t>-0.1875058</t>
+  </si>
+  <si>
+    <t>-0.1534395</t>
+  </si>
+  <si>
+    <t>-0.187134</t>
+  </si>
+  <si>
+    <t>0.04790064</t>
+  </si>
+  <si>
+    <t>-0.187701</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>0.1439541</t>
+  </si>
+  <si>
+    <t>-0.1883047</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>0.2492741</t>
+  </si>
+  <si>
+    <t>-0.1873766</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>0.3454114</t>
+  </si>
+  <si>
+    <t>-0.1877629</t>
+  </si>
+  <si>
+    <t>1.948</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>-0.5505668</t>
+  </si>
+  <si>
+    <t>-0.2850069</t>
+  </si>
+  <si>
+    <t>1.929</t>
+  </si>
+  <si>
+    <t>-0.4525752</t>
+  </si>
+  <si>
+    <t>-0.286052</t>
+  </si>
+  <si>
+    <t>-0.3431808</t>
+  </si>
+  <si>
+    <t>-0.281727</t>
+  </si>
+  <si>
+    <t>-0.2425716</t>
+  </si>
+  <si>
+    <t>-0.2814204</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>-0.1481708</t>
+  </si>
+  <si>
+    <t>-0.2824864</t>
+  </si>
+  <si>
+    <t>-0.04759818</t>
+  </si>
+  <si>
+    <t>-0.28274</t>
+  </si>
+  <si>
+    <t>0.04775788</t>
+  </si>
+  <si>
+    <t>-0.2824486</t>
+  </si>
+  <si>
+    <t>0.1536703</t>
+  </si>
+  <si>
+    <t>-0.2824776</t>
+  </si>
+  <si>
+    <t>0.2544857</t>
+  </si>
+  <si>
+    <t>-0.2827034</t>
+  </si>
+  <si>
+    <t>0.3497292</t>
+  </si>
+  <si>
+    <t>-0.2825826</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>-0.5487449</t>
+  </si>
+  <si>
+    <t>-0.3817887</t>
+  </si>
+  <si>
+    <t>-0.4479387</t>
+  </si>
+  <si>
+    <t>-0.3813327</t>
+  </si>
+  <si>
+    <t>-0.3428531</t>
+  </si>
+  <si>
+    <t>-0.381707</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>-0.2433079</t>
+  </si>
+  <si>
+    <t>-0.3828144</t>
+  </si>
+  <si>
+    <t>-0.1479184</t>
+  </si>
+  <si>
+    <t>-0.3824492</t>
+  </si>
+  <si>
+    <t>-0.04751476</t>
+  </si>
+  <si>
+    <t>-0.3827737</t>
+  </si>
+  <si>
+    <t>0.04777256</t>
+  </si>
+  <si>
+    <t>-0.3831682</t>
+  </si>
+  <si>
+    <t>0.153963</t>
+  </si>
+  <si>
+    <t>-0.3838194</t>
+  </si>
+  <si>
+    <t>1.946</t>
+  </si>
+  <si>
+    <t>0.2495667</t>
+  </si>
+  <si>
+    <t>-0.3839814</t>
+  </si>
+  <si>
+    <t>0.3497579</t>
+  </si>
+  <si>
+    <t>-0.3832636</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>-0.2481683</t>
+  </si>
+  <si>
+    <t>-0.4825158</t>
+  </si>
+  <si>
+    <t>-0.1478018</t>
+  </si>
+  <si>
+    <t>-0.4825124</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>-0.04754775</t>
+  </si>
+  <si>
+    <t>-0.4836383</t>
+  </si>
+  <si>
+    <t>0.0529689</t>
+  </si>
+  <si>
+    <t>-0.4828882</t>
+  </si>
+  <si>
+    <t>0.148544</t>
+  </si>
+  <si>
+    <t>-0.4842531</t>
+  </si>
+  <si>
+    <t>0.2488881</t>
+  </si>
+  <si>
+    <t>-0.4835096</t>
+  </si>
+  <si>
+    <t>0.3537758</t>
+  </si>
+  <si>
+    <t>-0.482177</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>-0.5514446</t>
+  </si>
+  <si>
+    <t>-0.4850692</t>
+  </si>
+  <si>
+    <t>-0.4482869</t>
+  </si>
+  <si>
+    <t>-0.4818577</t>
+  </si>
+  <si>
+    <t>-0.3370559</t>
+  </si>
+  <si>
+    <t>-0.4864804</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>-0.3532443</t>
+  </si>
+  <si>
+    <t>-0.5872131</t>
+  </si>
+  <si>
+    <t>-0.2530226</t>
+  </si>
+  <si>
+    <t>-0.5871701</t>
+  </si>
+  <si>
+    <t>-0.147609</t>
+  </si>
+  <si>
+    <t>-0.5873924</t>
+  </si>
+  <si>
+    <t>-0.04753403</t>
+  </si>
+  <si>
+    <t>-0.5840688</t>
+  </si>
+  <si>
+    <t>0.05300833</t>
+  </si>
+  <si>
+    <t>-0.5837653</t>
+  </si>
+  <si>
+    <t>0.148283</t>
+  </si>
+  <si>
+    <t>-0.5839522</t>
+  </si>
+  <si>
+    <t>0.2492534</t>
+  </si>
+  <si>
+    <t>-0.5849389</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>0.3609491</t>
+  </si>
+  <si>
+    <t>-0.5855454</t>
+  </si>
+  <si>
+    <t>1.953</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>-0.5521626</t>
+  </si>
+  <si>
+    <t>-0.5856347</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>-0.4527965</t>
+  </si>
+  <si>
+    <t>-0.58637</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>-0.3481476</t>
+  </si>
+  <si>
+    <t>-0.6824897</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>-0.2427962</t>
+  </si>
+  <si>
+    <t>-0.6829944</t>
+  </si>
+  <si>
+    <t>-0.1477765</t>
+  </si>
+  <si>
+    <t>-0.6831249</t>
+  </si>
+  <si>
+    <t>-0.04748334</t>
+  </si>
+  <si>
+    <t>-0.6839085</t>
+  </si>
+  <si>
+    <t>0.0529247</t>
+  </si>
+  <si>
+    <t>-0.6832033</t>
+  </si>
+  <si>
+    <t>0.1485937</t>
+  </si>
+  <si>
+    <t>-0.6859359</t>
+  </si>
+  <si>
+    <t>1.952</t>
+  </si>
+  <si>
+    <t>0.2540809</t>
+  </si>
+  <si>
+    <t>-0.6843833</t>
+  </si>
+  <si>
+    <t>0.3550847</t>
+  </si>
+  <si>
+    <t>-0.685293</t>
+  </si>
+  <si>
+    <t>1.951</t>
+  </si>
+  <si>
+    <t>-0.5525223</t>
+  </si>
+  <si>
+    <t>-0.680752</t>
+  </si>
+  <si>
+    <t>-0.4476582</t>
+  </si>
+  <si>
+    <t>-0.6813579</t>
   </si>
 </sst>
 </file>
@@ -441,13 +1191,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,163 +1208,2593 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" t="s">
+        <v>167</v>
+      </c>
+      <c r="H53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" t="s">
+        <v>172</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" t="s">
+        <v>174</v>
+      </c>
+      <c r="H56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H57" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" t="s">
+        <v>179</v>
+      </c>
+      <c r="G59" t="s">
+        <v>180</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60" t="s">
+        <v>182</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" t="s">
+        <v>185</v>
+      </c>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>186</v>
+      </c>
+      <c r="G62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" t="s">
+        <v>189</v>
+      </c>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" t="s">
+        <v>191</v>
+      </c>
+      <c r="G64" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" t="s">
+        <v>170</v>
+      </c>
+      <c r="F65" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" t="s">
+        <v>196</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" t="s">
+        <v>197</v>
+      </c>
+      <c r="G67" t="s">
+        <v>198</v>
+      </c>
+      <c r="H67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" t="s">
+        <v>200</v>
+      </c>
+      <c r="H68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" t="s">
+        <v>203</v>
+      </c>
+      <c r="H69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
+        <v>204</v>
+      </c>
+      <c r="G70" t="s">
+        <v>205</v>
+      </c>
+      <c r="H70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
+        <v>208</v>
+      </c>
+      <c r="G71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" t="s">
+        <v>170</v>
+      </c>
+      <c r="F72" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" t="s">
+        <v>211</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" t="s">
+        <v>212</v>
+      </c>
+      <c r="F73" t="s">
+        <v>213</v>
+      </c>
+      <c r="G73" t="s">
+        <v>214</v>
+      </c>
+      <c r="H73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" t="s">
+        <v>215</v>
+      </c>
+      <c r="G74" t="s">
+        <v>216</v>
+      </c>
+      <c r="H74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" t="s">
+        <v>217</v>
+      </c>
+      <c r="G75" t="s">
+        <v>218</v>
+      </c>
+      <c r="H75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76" t="s">
+        <v>220</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" t="s">
+        <v>221</v>
+      </c>
+      <c r="G77" t="s">
+        <v>222</v>
+      </c>
+      <c r="H77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" t="s">
+        <v>226</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>206</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>227</v>
+      </c>
+      <c r="G79" t="s">
+        <v>228</v>
+      </c>
+      <c r="H79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>223</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>229</v>
+      </c>
+      <c r="G80" t="s">
+        <v>230</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" t="s">
+        <v>235</v>
+      </c>
+      <c r="H81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" t="s">
+        <v>140</v>
+      </c>
+      <c r="F82" t="s">
+        <v>236</v>
+      </c>
+      <c r="G82" t="s">
+        <v>237</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>231</v>
+      </c>
+      <c r="E83" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" t="s">
+        <v>238</v>
+      </c>
+      <c r="G83" t="s">
+        <v>239</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" t="s">
+        <v>241</v>
+      </c>
+      <c r="H84" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" t="s">
+        <v>242</v>
+      </c>
+      <c r="G85" t="s">
+        <v>243</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" t="s">
+        <v>245</v>
+      </c>
+      <c r="H86" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" t="s">
+        <v>246</v>
+      </c>
+      <c r="G87" t="s">
+        <v>247</v>
+      </c>
+      <c r="H87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" t="s">
+        <v>248</v>
+      </c>
+      <c r="F88" t="s">
+        <v>249</v>
+      </c>
+      <c r="G88" t="s">
+        <v>250</v>
+      </c>
+      <c r="H88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>252</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" t="s">
+        <v>253</v>
+      </c>
+      <c r="G89" t="s">
+        <v>254</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>252</v>
+      </c>
+      <c r="E90" t="s">
+        <v>135</v>
+      </c>
+      <c r="F90" t="s">
+        <v>256</v>
+      </c>
+      <c r="G90" t="s">
+        <v>257</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>258</v>
+      </c>
+      <c r="B91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>258</v>
+      </c>
+      <c r="E91" t="s">
+        <v>232</v>
+      </c>
+      <c r="F91" t="s">
+        <v>259</v>
+      </c>
+      <c r="G91" t="s">
+        <v>260</v>
+      </c>
+      <c r="H91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" t="s">
+        <v>262</v>
+      </c>
+      <c r="G92" t="s">
+        <v>263</v>
+      </c>
+      <c r="H92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>261</v>
+      </c>
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" t="s">
+        <v>264</v>
+      </c>
+      <c r="G93" t="s">
+        <v>265</v>
+      </c>
+      <c r="H93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>261</v>
+      </c>
+      <c r="E94" t="s">
+        <v>212</v>
+      </c>
+      <c r="F94" t="s">
+        <v>266</v>
+      </c>
+      <c r="G94" t="s">
+        <v>267</v>
+      </c>
+      <c r="H94" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>261</v>
+      </c>
+      <c r="E95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" t="s">
+        <v>268</v>
+      </c>
+      <c r="G95" t="s">
+        <v>269</v>
+      </c>
+      <c r="H95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>261</v>
+      </c>
+      <c r="E96" t="s">
+        <v>67</v>
+      </c>
+      <c r="F96" t="s">
+        <v>270</v>
+      </c>
+      <c r="G96" t="s">
+        <v>271</v>
+      </c>
+      <c r="H96" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>261</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" t="s">
+        <v>273</v>
+      </c>
+      <c r="G97" t="s">
+        <v>274</v>
+      </c>
+      <c r="H97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>261</v>
+      </c>
+      <c r="E98" t="s">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s">
+        <v>275</v>
+      </c>
+      <c r="G98" t="s">
+        <v>276</v>
+      </c>
+      <c r="H98" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>258</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" t="s">
+        <v>278</v>
+      </c>
+      <c r="G99" t="s">
+        <v>279</v>
+      </c>
+      <c r="H99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>258</v>
+      </c>
+      <c r="B100" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>258</v>
+      </c>
+      <c r="E100" t="s">
+        <v>255</v>
+      </c>
+      <c r="F100" t="s">
+        <v>280</v>
+      </c>
+      <c r="G100" t="s">
+        <v>281</v>
+      </c>
+      <c r="H100" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="280">
   <si>
     <t>403</t>
   </si>
@@ -130,658 +130,652 @@
     <t>1136</t>
   </si>
   <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>0.2547594</t>
-  </si>
-  <si>
-    <t>0.2209969</t>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>0.2597951</t>
+  </si>
+  <si>
+    <t>0.215468</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>0.3497355</t>
+  </si>
+  <si>
+    <t>0.2153717</t>
+  </si>
+  <si>
+    <t>1.943</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>-0.5477108</t>
+  </si>
+  <si>
+    <t>0.1193383</t>
+  </si>
+  <si>
+    <t>1.936</t>
+  </si>
+  <si>
+    <t>-0.4479938</t>
+  </si>
+  <si>
+    <t>0.1141637</t>
+  </si>
+  <si>
+    <t>-0.3384715</t>
+  </si>
+  <si>
+    <t>0.1145646</t>
+  </si>
+  <si>
+    <t>-0.2482743</t>
+  </si>
+  <si>
+    <t>0.1144434</t>
+  </si>
+  <si>
+    <t>-0.1482185</t>
+  </si>
+  <si>
+    <t>0.1147162</t>
+  </si>
+  <si>
+    <t>1.938</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>-0.04764052</t>
+  </si>
+  <si>
+    <t>0.1148843</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>0.04802233</t>
+  </si>
+  <si>
+    <t>0.1152988</t>
+  </si>
+  <si>
+    <t>1.947</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>0.1488101</t>
+  </si>
+  <si>
+    <t>0.115012</t>
+  </si>
+  <si>
+    <t>0.2602284</t>
+  </si>
+  <si>
+    <t>0.1149631</t>
   </si>
   <si>
     <t>1.944</t>
   </si>
   <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>0.3497355</t>
-  </si>
-  <si>
-    <t>0.2153717</t>
-  </si>
-  <si>
-    <t>1.943</t>
-  </si>
-  <si>
-    <t>458</t>
+    <t>0.3502947</t>
+  </si>
+  <si>
+    <t>0.1149038</t>
+  </si>
+  <si>
+    <t>1.945</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>-0.5469525</t>
+  </si>
+  <si>
+    <t>0.008709806</t>
+  </si>
+  <si>
+    <t>1.933</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>-0.4478496</t>
+  </si>
+  <si>
+    <t>0.01399621</t>
+  </si>
+  <si>
+    <t>-0.3439964</t>
+  </si>
+  <si>
+    <t>0.01935332</t>
+  </si>
+  <si>
+    <t>-0.2438194</t>
+  </si>
+  <si>
+    <t>0.01938563</t>
+  </si>
+  <si>
+    <t>1.941</t>
+  </si>
+  <si>
+    <t>-0.1483364</t>
+  </si>
+  <si>
+    <t>0.01938112</t>
+  </si>
+  <si>
+    <t>-0.04241372</t>
+  </si>
+  <si>
+    <t>0.01942993</t>
+  </si>
+  <si>
+    <t>0.05325164</t>
+  </si>
+  <si>
+    <t>0.01942947</t>
+  </si>
+  <si>
+    <t>0.1543173</t>
+  </si>
+  <si>
+    <t>0.01944038</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>0.2494467</t>
+  </si>
+  <si>
+    <t>0.01408946</t>
+  </si>
+  <si>
+    <t>0.3501962</t>
+  </si>
+  <si>
+    <t>0.01408752</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>-0.5494573</t>
+  </si>
+  <si>
+    <t>-0.08108248</t>
+  </si>
+  <si>
+    <t>-0.4439413</t>
+  </si>
+  <si>
+    <t>-0.08111333</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>-0.3434254</t>
+  </si>
+  <si>
+    <t>-0.08109513</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>-0.2436627</t>
+  </si>
+  <si>
+    <t>-0.08131327</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>-0.1484691</t>
+  </si>
+  <si>
+    <t>-0.08141939</t>
+  </si>
+  <si>
+    <t>-0.04767212</t>
+  </si>
+  <si>
+    <t>-0.08145511</t>
+  </si>
+  <si>
+    <t>0.04788044</t>
+  </si>
+  <si>
+    <t>-0.08676185</t>
+  </si>
+  <si>
+    <t>0.1542169</t>
+  </si>
+  <si>
+    <t>-0.08154228</t>
+  </si>
+  <si>
+    <t>0.249538</t>
+  </si>
+  <si>
+    <t>-0.08674015</t>
+  </si>
+  <si>
+    <t>0.3503357</t>
+  </si>
+  <si>
+    <t>-0.08142444</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>-0.5478811</t>
+  </si>
+  <si>
+    <t>-0.1809625</t>
+  </si>
+  <si>
+    <t>-0.4442254</t>
+  </si>
+  <si>
+    <t>-0.1816684</t>
+  </si>
+  <si>
+    <t>-0.3439739</t>
+  </si>
+  <si>
+    <t>-0.1818014</t>
+  </si>
+  <si>
+    <t>-0.2434089</t>
+  </si>
+  <si>
+    <t>-0.1818102</t>
+  </si>
+  <si>
+    <t>-0.04757055</t>
+  </si>
+  <si>
+    <t>-0.1819288</t>
+  </si>
+  <si>
+    <t>-0.1483087</t>
+  </si>
+  <si>
+    <t>-0.1820405</t>
+  </si>
+  <si>
+    <t>0.04790064</t>
+  </si>
+  <si>
+    <t>-0.187701</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>0.1544472</t>
+  </si>
+  <si>
+    <t>-0.1827848</t>
+  </si>
+  <si>
+    <t>1.948</t>
+  </si>
+  <si>
+    <t>0.2492741</t>
+  </si>
+  <si>
+    <t>-0.1873766</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>0.3454114</t>
+  </si>
+  <si>
+    <t>-0.1877629</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>698</t>
   </si>
   <si>
     <t>696</t>
   </si>
   <si>
-    <t>-0.5523785</t>
-  </si>
-  <si>
-    <t>0.1139471</t>
-  </si>
-  <si>
-    <t>-0.4479938</t>
-  </si>
-  <si>
-    <t>0.1141637</t>
-  </si>
-  <si>
-    <t>-0.3384715</t>
-  </si>
-  <si>
-    <t>0.1145646</t>
-  </si>
-  <si>
-    <t>-0.2482743</t>
-  </si>
-  <si>
-    <t>0.1144434</t>
-  </si>
-  <si>
-    <t>-0.1482185</t>
-  </si>
-  <si>
-    <t>0.1147162</t>
-  </si>
-  <si>
-    <t>1.938</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
-    <t>-0.04764052</t>
-  </si>
-  <si>
-    <t>0.1148843</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>0.04802233</t>
-  </si>
-  <si>
-    <t>0.1152988</t>
-  </si>
-  <si>
-    <t>1.947</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>0.1488101</t>
-  </si>
-  <si>
-    <t>0.115012</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>0.2550584</t>
-  </si>
-  <si>
-    <t>0.1203371</t>
-  </si>
-  <si>
-    <t>1.945</t>
-  </si>
-  <si>
-    <t>0.3502947</t>
-  </si>
-  <si>
-    <t>0.1149038</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>-0.5507458</t>
-  </si>
-  <si>
-    <t>0.01393285</t>
-  </si>
-  <si>
-    <t>1.928</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>-0.4478496</t>
-  </si>
-  <si>
-    <t>0.01399621</t>
-  </si>
-  <si>
-    <t>-0.3439964</t>
-  </si>
-  <si>
-    <t>0.01935332</t>
-  </si>
-  <si>
-    <t>-0.2438194</t>
-  </si>
-  <si>
-    <t>0.01938563</t>
-  </si>
-  <si>
-    <t>1.941</t>
-  </si>
-  <si>
-    <t>-0.1483364</t>
-  </si>
-  <si>
-    <t>0.01938112</t>
-  </si>
-  <si>
-    <t>-0.04241372</t>
-  </si>
-  <si>
-    <t>0.01942993</t>
-  </si>
-  <si>
-    <t>0.05325164</t>
-  </si>
-  <si>
-    <t>0.01942947</t>
-  </si>
-  <si>
-    <t>0.1543173</t>
-  </si>
-  <si>
-    <t>0.01944038</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>1135</t>
-  </si>
-  <si>
-    <t>1134</t>
-  </si>
-  <si>
-    <t>0.2494467</t>
-  </si>
-  <si>
-    <t>0.01408946</t>
-  </si>
-  <si>
-    <t>0.3501962</t>
-  </si>
-  <si>
-    <t>0.01408752</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>-0.5494573</t>
-  </si>
-  <si>
-    <t>-0.08108248</t>
-  </si>
-  <si>
-    <t>-0.4439413</t>
-  </si>
-  <si>
-    <t>-0.08111333</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>-0.3434254</t>
-  </si>
-  <si>
-    <t>-0.08109513</t>
-  </si>
-  <si>
-    <t>863</t>
-  </si>
-  <si>
-    <t>-0.2436627</t>
-  </si>
-  <si>
-    <t>-0.08131327</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>-0.15345</t>
-  </si>
-  <si>
-    <t>-0.08654218</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>-0.05289706</t>
-  </si>
-  <si>
-    <t>-0.08662675</t>
-  </si>
-  <si>
-    <t>0.04788044</t>
-  </si>
-  <si>
-    <t>-0.08676185</t>
-  </si>
-  <si>
-    <t>1077</t>
-  </si>
-  <si>
-    <t>0.1435955</t>
-  </si>
-  <si>
-    <t>-0.08686076</t>
-  </si>
-  <si>
-    <t>0.249538</t>
-  </si>
-  <si>
-    <t>-0.08674015</t>
-  </si>
-  <si>
-    <t>1188</t>
-  </si>
-  <si>
-    <t>0.3450465</t>
-  </si>
-  <si>
-    <t>-0.08673534</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>-0.5513914</t>
-  </si>
-  <si>
-    <t>-0.1856395</t>
-  </si>
-  <si>
-    <t>1.931</t>
+    <t>-0.5505668</t>
+  </si>
+  <si>
+    <t>-0.2850069</t>
+  </si>
+  <si>
+    <t>1.929</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>-0.44828</t>
+  </si>
+  <si>
+    <t>-0.2813962</t>
+  </si>
+  <si>
+    <t>-0.3431808</t>
+  </si>
+  <si>
+    <t>-0.281727</t>
+  </si>
+  <si>
+    <t>-0.2425716</t>
+  </si>
+  <si>
+    <t>-0.2814204</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>-0.1481708</t>
+  </si>
+  <si>
+    <t>-0.2824864</t>
+  </si>
+  <si>
+    <t>-0.04759818</t>
+  </si>
+  <si>
+    <t>-0.28274</t>
+  </si>
+  <si>
+    <t>0.04775788</t>
+  </si>
+  <si>
+    <t>-0.2824486</t>
+  </si>
+  <si>
+    <t>0.1536703</t>
+  </si>
+  <si>
+    <t>-0.2824776</t>
+  </si>
+  <si>
+    <t>0.2544857</t>
+  </si>
+  <si>
+    <t>-0.2827034</t>
+  </si>
+  <si>
+    <t>0.3497292</t>
+  </si>
+  <si>
+    <t>-0.2825826</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>-0.5487449</t>
+  </si>
+  <si>
+    <t>-0.3817887</t>
+  </si>
+  <si>
+    <t>-0.4479387</t>
+  </si>
+  <si>
+    <t>-0.3813327</t>
+  </si>
+  <si>
+    <t>-0.3428531</t>
+  </si>
+  <si>
+    <t>-0.381707</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>-0.2433079</t>
+  </si>
+  <si>
+    <t>-0.3828144</t>
+  </si>
+  <si>
+    <t>-0.1479184</t>
+  </si>
+  <si>
+    <t>-0.3824492</t>
+  </si>
+  <si>
+    <t>-0.04751476</t>
+  </si>
+  <si>
+    <t>-0.3827737</t>
+  </si>
+  <si>
+    <t>0.04777256</t>
+  </si>
+  <si>
+    <t>-0.3831682</t>
+  </si>
+  <si>
+    <t>0.153963</t>
+  </si>
+  <si>
+    <t>-0.3838194</t>
+  </si>
+  <si>
+    <t>1.946</t>
+  </si>
+  <si>
+    <t>0.2495667</t>
+  </si>
+  <si>
+    <t>-0.3839814</t>
+  </si>
+  <si>
+    <t>0.3497579</t>
+  </si>
+  <si>
+    <t>-0.3832636</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>-0.2481683</t>
+  </si>
+  <si>
+    <t>-0.4825158</t>
+  </si>
+  <si>
+    <t>-0.1478018</t>
+  </si>
+  <si>
+    <t>-0.4825124</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>-0.04754775</t>
+  </si>
+  <si>
+    <t>-0.4836383</t>
+  </si>
+  <si>
+    <t>0.0529689</t>
+  </si>
+  <si>
+    <t>-0.4828882</t>
+  </si>
+  <si>
+    <t>0.148544</t>
+  </si>
+  <si>
+    <t>-0.4842531</t>
+  </si>
+  <si>
+    <t>0.2488881</t>
+  </si>
+  <si>
+    <t>-0.4835096</t>
+  </si>
+  <si>
+    <t>0.3537758</t>
+  </si>
+  <si>
+    <t>-0.482177</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>-0.5514446</t>
+  </si>
+  <si>
+    <t>-0.4850692</t>
+  </si>
+  <si>
+    <t>-0.4482869</t>
+  </si>
+  <si>
+    <t>-0.4818577</t>
+  </si>
+  <si>
+    <t>-0.3423293</t>
+  </si>
+  <si>
+    <t>-0.4812197</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>-0.358325</t>
+  </si>
+  <si>
+    <t>-0.5868968</t>
+  </si>
+  <si>
+    <t>-0.2530226</t>
+  </si>
+  <si>
+    <t>-0.5871701</t>
+  </si>
+  <si>
+    <t>-0.147609</t>
+  </si>
+  <si>
+    <t>-0.5873924</t>
+  </si>
+  <si>
+    <t>-0.04753403</t>
+  </si>
+  <si>
+    <t>-0.5840688</t>
+  </si>
+  <si>
+    <t>0.05300833</t>
+  </si>
+  <si>
+    <t>-0.5837653</t>
+  </si>
+  <si>
+    <t>0.148283</t>
+  </si>
+  <si>
+    <t>-0.5839522</t>
+  </si>
+  <si>
+    <t>0.2492534</t>
+  </si>
+  <si>
+    <t>-0.5849389</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>0.3558475</t>
+  </si>
+  <si>
+    <t>-0.5805733</t>
+  </si>
+  <si>
+    <t>1.954</t>
+  </si>
+  <si>
+    <t>-0.5521626</t>
+  </si>
+  <si>
+    <t>-0.5856347</t>
+  </si>
+  <si>
+    <t>752</t>
   </si>
   <si>
     <t>750</t>
-  </si>
-  <si>
-    <t>-0.4530919</t>
-  </si>
-  <si>
-    <t>-0.1862539</t>
-  </si>
-  <si>
-    <t>-0.3383411</t>
-  </si>
-  <si>
-    <t>-0.1869074</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>-0.2538302</t>
-  </si>
-  <si>
-    <t>-0.1869815</t>
-  </si>
-  <si>
-    <t>-0.05294677</t>
-  </si>
-  <si>
-    <t>-0.1875058</t>
-  </si>
-  <si>
-    <t>-0.1534395</t>
-  </si>
-  <si>
-    <t>-0.187134</t>
-  </si>
-  <si>
-    <t>0.04790064</t>
-  </si>
-  <si>
-    <t>-0.187701</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>0.1439541</t>
-  </si>
-  <si>
-    <t>-0.1883047</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>0.2492741</t>
-  </si>
-  <si>
-    <t>-0.1873766</t>
-  </si>
-  <si>
-    <t>1189</t>
-  </si>
-  <si>
-    <t>0.3454114</t>
-  </si>
-  <si>
-    <t>-0.1877629</t>
-  </si>
-  <si>
-    <t>1.948</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>-0.5505668</t>
-  </si>
-  <si>
-    <t>-0.2850069</t>
-  </si>
-  <si>
-    <t>1.929</t>
-  </si>
-  <si>
-    <t>-0.4525752</t>
-  </si>
-  <si>
-    <t>-0.286052</t>
-  </si>
-  <si>
-    <t>-0.3431808</t>
-  </si>
-  <si>
-    <t>-0.281727</t>
-  </si>
-  <si>
-    <t>-0.2425716</t>
-  </si>
-  <si>
-    <t>-0.2814204</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>-0.1481708</t>
-  </si>
-  <si>
-    <t>-0.2824864</t>
-  </si>
-  <si>
-    <t>-0.04759818</t>
-  </si>
-  <si>
-    <t>-0.28274</t>
-  </si>
-  <si>
-    <t>0.04775788</t>
-  </si>
-  <si>
-    <t>-0.2824486</t>
-  </si>
-  <si>
-    <t>0.1536703</t>
-  </si>
-  <si>
-    <t>-0.2824776</t>
-  </si>
-  <si>
-    <t>0.2544857</t>
-  </si>
-  <si>
-    <t>-0.2827034</t>
-  </si>
-  <si>
-    <t>0.3497292</t>
-  </si>
-  <si>
-    <t>-0.2825826</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>-0.5487449</t>
-  </si>
-  <si>
-    <t>-0.3817887</t>
-  </si>
-  <si>
-    <t>-0.4479387</t>
-  </si>
-  <si>
-    <t>-0.3813327</t>
-  </si>
-  <si>
-    <t>-0.3428531</t>
-  </si>
-  <si>
-    <t>-0.381707</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>-0.2433079</t>
-  </si>
-  <si>
-    <t>-0.3828144</t>
-  </si>
-  <si>
-    <t>-0.1479184</t>
-  </si>
-  <si>
-    <t>-0.3824492</t>
-  </si>
-  <si>
-    <t>-0.04751476</t>
-  </si>
-  <si>
-    <t>-0.3827737</t>
-  </si>
-  <si>
-    <t>0.04777256</t>
-  </si>
-  <si>
-    <t>-0.3831682</t>
-  </si>
-  <si>
-    <t>0.153963</t>
-  </si>
-  <si>
-    <t>-0.3838194</t>
-  </si>
-  <si>
-    <t>1.946</t>
-  </si>
-  <si>
-    <t>0.2495667</t>
-  </si>
-  <si>
-    <t>-0.3839814</t>
-  </si>
-  <si>
-    <t>0.3497579</t>
-  </si>
-  <si>
-    <t>-0.3832636</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>862</t>
-  </si>
-  <si>
-    <t>-0.2481683</t>
-  </si>
-  <si>
-    <t>-0.4825158</t>
-  </si>
-  <si>
-    <t>-0.1478018</t>
-  </si>
-  <si>
-    <t>-0.4825124</t>
-  </si>
-  <si>
-    <t>971</t>
-  </si>
-  <si>
-    <t>-0.04754775</t>
-  </si>
-  <si>
-    <t>-0.4836383</t>
-  </si>
-  <si>
-    <t>0.0529689</t>
-  </si>
-  <si>
-    <t>-0.4828882</t>
-  </si>
-  <si>
-    <t>0.148544</t>
-  </si>
-  <si>
-    <t>-0.4842531</t>
-  </si>
-  <si>
-    <t>0.2488881</t>
-  </si>
-  <si>
-    <t>-0.4835096</t>
-  </si>
-  <si>
-    <t>0.3537758</t>
-  </si>
-  <si>
-    <t>-0.482177</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>-0.5514446</t>
-  </si>
-  <si>
-    <t>-0.4850692</t>
-  </si>
-  <si>
-    <t>-0.4482869</t>
-  </si>
-  <si>
-    <t>-0.4818577</t>
-  </si>
-  <si>
-    <t>-0.3370559</t>
-  </si>
-  <si>
-    <t>-0.4864804</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>-0.3532443</t>
-  </si>
-  <si>
-    <t>-0.5872131</t>
-  </si>
-  <si>
-    <t>-0.2530226</t>
-  </si>
-  <si>
-    <t>-0.5871701</t>
-  </si>
-  <si>
-    <t>-0.147609</t>
-  </si>
-  <si>
-    <t>-0.5873924</t>
-  </si>
-  <si>
-    <t>-0.04753403</t>
-  </si>
-  <si>
-    <t>-0.5840688</t>
-  </si>
-  <si>
-    <t>0.05300833</t>
-  </si>
-  <si>
-    <t>-0.5837653</t>
-  </si>
-  <si>
-    <t>0.148283</t>
-  </si>
-  <si>
-    <t>-0.5839522</t>
-  </si>
-  <si>
-    <t>0.2492534</t>
-  </si>
-  <si>
-    <t>-0.5849389</t>
-  </si>
-  <si>
-    <t>1192</t>
-  </si>
-  <si>
-    <t>0.3609491</t>
-  </si>
-  <si>
-    <t>-0.5855454</t>
-  </si>
-  <si>
-    <t>1.953</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>-0.5521626</t>
-  </si>
-  <si>
-    <t>-0.5856347</t>
-  </si>
-  <si>
-    <t>752</t>
   </si>
   <si>
     <t>-0.4527965</t>
@@ -1191,13 +1185,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,8 +1216,17 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1248,8 +1251,17 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1274,8 +1286,17 @@
       <c r="H3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1379,7 +1400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1405,7 +1426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1416,10 +1437,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -1428,15 +1449,24 @@
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1445,21 +1475,21 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>44</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1471,21 +1501,30 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>48</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1494,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1508,10 +1547,19 @@
       <c r="H12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1520,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1534,10 +1582,19 @@
       <c r="H13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1546,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -1561,9 +1618,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1572,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -1587,7 +1644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1612,8 +1669,17 @@
       <c r="H16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1638,8 +1704,17 @@
       <c r="H17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1662,10 +1737,19 @@
         <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1676,27 +1760,36 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>71</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>72</v>
       </c>
-      <c r="H19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1705,19 +1798,19 @@
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
         <v>74</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>75</v>
       </c>
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1728,24 +1821,33 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1754,24 +1856,33 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1780,24 +1891,24 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -1806,24 +1917,24 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1832,24 +1943,24 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1858,24 +1969,24 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1884,24 +1995,24 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -1910,24 +2021,24 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
         <v>97</v>
@@ -1936,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
         <v>98</v>
@@ -1950,22 +2061,31 @@
       <c r="H29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
         <v>101</v>
@@ -1974,10 +2094,10 @@
         <v>102</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -2003,7 +2123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -2029,7 +2149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -2055,7 +2175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -2081,7 +2201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2092,22 +2212,31 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
         <v>115</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>116</v>
       </c>
-      <c r="G35" t="s">
-        <v>117</v>
-      </c>
       <c r="H35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -2118,22 +2247,31 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
         <v>118</v>
       </c>
-      <c r="F36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" t="s">
-        <v>120</v>
-      </c>
       <c r="H36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -2150,16 +2288,16 @@
         <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -2170,22 +2308,31 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -2202,44 +2349,62 @@
         <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2248,24 +2413,33 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -2274,24 +2448,33 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>131</v>
       </c>
-      <c r="E42" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" t="s">
-        <v>136</v>
-      </c>
       <c r="G42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
         <v>108</v>
@@ -2300,24 +2483,33 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
@@ -2326,24 +2518,33 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
         <v>60</v>
@@ -2352,24 +2553,33 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G45" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -2378,24 +2588,33 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -2404,24 +2623,33 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
         <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
@@ -2430,24 +2658,33 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
@@ -2456,76 +2693,103 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
         <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H49" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
         <v>149</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" t="s">
         <v>155</v>
       </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>156</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>157</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H51" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>159</v>
-      </c>
-      <c r="E51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" t="s">
-        <v>161</v>
-      </c>
-      <c r="G51" t="s">
-        <v>162</v>
-      </c>
-      <c r="H51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2537,21 +2801,30 @@
         <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
         <v>108</v>
@@ -2560,24 +2833,24 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
         <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H53" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
         <v>111</v>
@@ -2586,50 +2859,50 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
         <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H55" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -2638,24 +2911,24 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G56" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
         <v>63</v>
@@ -2664,24 +2937,24 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
         <v>33</v>
@@ -2690,24 +2963,24 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
         <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H58" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
         <v>97</v>
@@ -2716,76 +2989,76 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
         <v>97</v>
       </c>
       <c r="F59" t="s">
+        <v>175</v>
+      </c>
+      <c r="G59" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
         <v>179</v>
       </c>
-      <c r="G59" t="s">
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" t="s">
         <v>180</v>
       </c>
-      <c r="H59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" t="s">
-        <v>155</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G61" t="s">
         <v>181</v>
-      </c>
-      <c r="G60" t="s">
-        <v>182</v>
-      </c>
-      <c r="H60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>183</v>
-      </c>
-      <c r="B61" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" t="s">
-        <v>160</v>
-      </c>
-      <c r="F61" t="s">
-        <v>184</v>
-      </c>
-      <c r="G61" t="s">
-        <v>185</v>
       </c>
       <c r="H61" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2794,24 +3067,24 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
         <v>108</v>
@@ -2820,24 +3093,24 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
       </c>
       <c r="F63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G63" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
         <v>111</v>
@@ -2846,50 +3119,50 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
         <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G64" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" t="s">
+        <v>189</v>
+      </c>
+      <c r="G65" t="s">
         <v>190</v>
-      </c>
-      <c r="B65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>190</v>
-      </c>
-      <c r="E65" t="s">
-        <v>170</v>
-      </c>
-      <c r="F65" t="s">
-        <v>193</v>
-      </c>
-      <c r="G65" t="s">
-        <v>194</v>
       </c>
       <c r="H65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -2898,24 +3171,24 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E66" t="s">
         <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
@@ -2924,24 +3197,24 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E67" t="s">
         <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G67" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
         <v>33</v>
@@ -2950,24 +3223,24 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
         <v>97</v>
@@ -2976,128 +3249,155 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
         <v>98</v>
       </c>
       <c r="F69" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" t="s">
+        <v>199</v>
+      </c>
+      <c r="H69" t="s">
+        <v>146</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>7</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" t="s">
+        <v>201</v>
+      </c>
+      <c r="H70" t="s">
+        <v>197</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>7</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
         <v>202</v>
       </c>
-      <c r="G69" t="s">
+      <c r="B71" t="s">
         <v>203</v>
       </c>
-      <c r="H69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s">
-        <v>183</v>
-      </c>
-      <c r="E70" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" t="s">
         <v>204</v>
       </c>
-      <c r="G70" t="s">
+      <c r="F71" t="s">
         <v>205</v>
       </c>
-      <c r="H70" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
+      <c r="G71" t="s">
         <v>206</v>
       </c>
-      <c r="B71" t="s">
+      <c r="H71" t="s">
+        <v>88</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>7</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" t="s">
         <v>207</v>
       </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" t="s">
-        <v>140</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G72" t="s">
         <v>208</v>
-      </c>
-      <c r="G71" t="s">
-        <v>209</v>
-      </c>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>206</v>
-      </c>
-      <c r="B72" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>206</v>
-      </c>
-      <c r="E72" t="s">
-        <v>170</v>
-      </c>
-      <c r="F72" t="s">
-        <v>210</v>
-      </c>
-      <c r="G72" t="s">
-        <v>211</v>
       </c>
       <c r="H72" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F73" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G73" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H73" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s">
         <v>63</v>
@@ -3106,24 +3406,24 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
         <v>63</v>
       </c>
       <c r="F74" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G74" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B75" t="s">
         <v>33</v>
@@ -3132,24 +3432,33 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E75" t="s">
         <v>67</v>
       </c>
       <c r="F75" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G75" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H75" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>7</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B76" t="s">
         <v>97</v>
@@ -3158,76 +3467,94 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
         <v>98</v>
       </c>
       <c r="F76" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" t="s">
+        <v>217</v>
+      </c>
+      <c r="H76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>7</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" t="s">
+        <v>218</v>
+      </c>
+      <c r="G77" t="s">
         <v>219</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
         <v>220</v>
       </c>
-      <c r="H76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>206</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" t="s">
         <v>155</v>
       </c>
-      <c r="C77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>206</v>
-      </c>
-      <c r="E77" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77" t="s">
-        <v>221</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F78" t="s">
         <v>222</v>
       </c>
-      <c r="H77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
+      <c r="G78" t="s">
         <v>223</v>
-      </c>
-      <c r="B78" t="s">
-        <v>224</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
-        <v>223</v>
-      </c>
-      <c r="E78" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" t="s">
-        <v>225</v>
-      </c>
-      <c r="G78" t="s">
-        <v>226</v>
       </c>
       <c r="H78" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -3236,24 +3563,24 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G79" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H79" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
@@ -3262,102 +3589,129 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F80" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H80" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" t="s">
         <v>231</v>
       </c>
-      <c r="B81" t="s">
+      <c r="G81" t="s">
         <v>232</v>
       </c>
-      <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>231</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" t="s">
         <v>233</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G82" t="s">
         <v>234</v>
-      </c>
-      <c r="G81" t="s">
-        <v>235</v>
-      </c>
-      <c r="H81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>231</v>
-      </c>
-      <c r="B82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>231</v>
-      </c>
-      <c r="E82" t="s">
-        <v>140</v>
-      </c>
-      <c r="F82" t="s">
-        <v>236</v>
-      </c>
-      <c r="G82" t="s">
-        <v>237</v>
       </c>
       <c r="H82" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>6</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E83" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F83" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G83" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H83" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
@@ -3366,24 +3720,24 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E84" t="s">
         <v>60</v>
       </c>
       <c r="F84" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H84" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s">
         <v>63</v>
@@ -3392,24 +3746,24 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E85" t="s">
         <v>63</v>
       </c>
       <c r="F85" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G85" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B86" t="s">
         <v>67</v>
@@ -3418,24 +3772,24 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E86" t="s">
         <v>67</v>
       </c>
       <c r="F86" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G86" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H86" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B87" t="s">
         <v>97</v>
@@ -3444,206 +3798,242 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E87" t="s">
         <v>98</v>
       </c>
       <c r="F87" t="s">
+        <v>243</v>
+      </c>
+      <c r="G87" t="s">
+        <v>244</v>
+      </c>
+      <c r="H87" t="s">
+        <v>245</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
         <v>246</v>
       </c>
-      <c r="G87" t="s">
+      <c r="E88" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s">
         <v>247</v>
       </c>
-      <c r="H87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>231</v>
-      </c>
-      <c r="B88" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s">
-        <v>231</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>248</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" t="s">
         <v>249</v>
       </c>
-      <c r="G88" t="s">
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" t="s">
+        <v>221</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>230</v>
+      </c>
+      <c r="E89" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" t="s">
         <v>250</v>
       </c>
-      <c r="H88" t="s">
+      <c r="G89" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>252</v>
-      </c>
-      <c r="B89" t="s">
-        <v>224</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s">
-        <v>252</v>
-      </c>
-      <c r="E89" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" t="s">
-        <v>253</v>
-      </c>
-      <c r="G89" t="s">
-        <v>254</v>
       </c>
       <c r="H89" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" t="s">
         <v>252</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>230</v>
+      </c>
+      <c r="E90" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" t="s">
+        <v>254</v>
+      </c>
+      <c r="G90" t="s">
         <v>255</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s">
-        <v>252</v>
-      </c>
-      <c r="E90" t="s">
-        <v>135</v>
-      </c>
-      <c r="F90" t="s">
-        <v>256</v>
-      </c>
-      <c r="G90" t="s">
-        <v>257</v>
       </c>
       <c r="H90" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" t="s">
+        <v>229</v>
+      </c>
+      <c r="F91" t="s">
+        <v>257</v>
+      </c>
+      <c r="G91" t="s">
         <v>258</v>
       </c>
-      <c r="B91" t="s">
-        <v>232</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s">
-        <v>258</v>
-      </c>
-      <c r="E91" t="s">
-        <v>232</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
         <v>259</v>
       </c>
-      <c r="G91" t="s">
+      <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>259</v>
+      </c>
+      <c r="E92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" t="s">
         <v>260</v>
       </c>
-      <c r="H91" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
+      <c r="G92" t="s">
         <v>261</v>
       </c>
-      <c r="B92" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s">
-        <v>261</v>
-      </c>
-      <c r="E92" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>259</v>
+      </c>
+      <c r="B93" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>259</v>
+      </c>
+      <c r="E93" t="s">
+        <v>166</v>
+      </c>
+      <c r="F93" t="s">
         <v>262</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>263</v>
       </c>
-      <c r="H92" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>261</v>
-      </c>
-      <c r="B93" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
-        <v>261</v>
-      </c>
-      <c r="E93" t="s">
-        <v>170</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>259</v>
+      </c>
+      <c r="E94" t="s">
+        <v>209</v>
+      </c>
+      <c r="F94" t="s">
         <v>264</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G94" t="s">
         <v>265</v>
       </c>
-      <c r="H93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>261</v>
-      </c>
-      <c r="B94" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s">
-        <v>261</v>
-      </c>
-      <c r="E94" t="s">
-        <v>212</v>
-      </c>
-      <c r="F94" t="s">
-        <v>266</v>
-      </c>
-      <c r="G94" t="s">
-        <v>267</v>
-      </c>
       <c r="H94" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B95" t="s">
         <v>63</v>
@@ -3652,24 +4042,24 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E95" t="s">
         <v>63</v>
       </c>
       <c r="F95" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G95" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H95" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B96" t="s">
         <v>67</v>
@@ -3678,24 +4068,24 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E96" t="s">
         <v>67</v>
       </c>
       <c r="F96" t="s">
+        <v>268</v>
+      </c>
+      <c r="G96" t="s">
+        <v>269</v>
+      </c>
+      <c r="H96" t="s">
         <v>270</v>
-      </c>
-      <c r="G96" t="s">
-        <v>271</v>
-      </c>
-      <c r="H96" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
@@ -3704,68 +4094,68 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E97" t="s">
         <v>97</v>
       </c>
       <c r="F97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G97" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H97" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
+        <v>273</v>
+      </c>
+      <c r="G98" t="s">
+        <v>274</v>
+      </c>
+      <c r="H98" t="s">
         <v>275</v>
-      </c>
-      <c r="G98" t="s">
-        <v>276</v>
-      </c>
-      <c r="H98" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="F99" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H99" t="s">
         <v>58</v>
@@ -3773,25 +4163,25 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E100" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H100" t="s">
         <v>28</v>
